--- a/data/case1/2/Qlm1_14.xlsx
+++ b/data/case1/2/Qlm1_14.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.28576545058709968</v>
+        <v>-0.22510864227085392</v>
       </c>
       <c r="B1" s="0">
-        <v>0.28549263128510205</v>
+        <v>0.22495396144379498</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.15331133428322019</v>
+        <v>-0.17148038099303342</v>
       </c>
       <c r="B2" s="0">
-        <v>0.15294036980228043</v>
+        <v>0.17101768648356241</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.10323737158801016</v>
+        <v>-0.089263900635364379</v>
       </c>
       <c r="B3" s="0">
-        <v>0.10295681974698034</v>
+        <v>0.08901114280356559</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.094956819798836634</v>
+        <v>-0.081011142869305885</v>
       </c>
       <c r="B4" s="0">
-        <v>0.094505648982849522</v>
+        <v>0.08059621719089094</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.091505649012907142</v>
+        <v>-0.077596217228030895</v>
       </c>
       <c r="B5" s="0">
-        <v>0.089972333987446973</v>
+        <v>0.07618953800106798</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.022363144871622609</v>
+        <v>0.025119133493104684</v>
       </c>
       <c r="B6" s="0">
-        <v>0.022097239508749311</v>
+        <v>-0.02517037660928878</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0073505701989291516</v>
+        <v>0.035170376519428448</v>
       </c>
       <c r="B7" s="0">
-        <v>0.0073174739862724714</v>
+        <v>-0.035189275364993833</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0026825259388378875</v>
+        <v>-0.00012255912986969264</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.0027154575010208681</v>
+        <v>9.324093813090073e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0047154574661742998</v>
+        <v>0.0019067590257253464</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0047357266159098188</v>
+        <v>-0.0019236989372219959</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0067357265813470235</v>
+        <v>0.0039236989012270129</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0067356317324982484</v>
+        <v>-0.0039234520045994259</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.024383174382982986</v>
+        <v>0.0069234519622307644</v>
       </c>
       <c r="B11" s="0">
-        <v>0.024357421287869663</v>
+        <v>-0.0069235687576174598</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.020857421330647163</v>
+        <v>0.0104235687122336</v>
       </c>
       <c r="B12" s="0">
-        <v>0.020667189686123244</v>
+        <v>-0.010432093996584069</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017167189732238519</v>
+        <v>0.013932093952814917</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017080578522675971</v>
+        <v>-0.013941258453879612</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090805785922514204</v>
+        <v>0.021941258382046414</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090522815998248518</v>
+        <v>-0.021965459540300714</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080522816349724025</v>
+        <v>0.022965459514595388</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080340103211149483</v>
+        <v>-0.023000239133644129</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060340103618057306</v>
+        <v>-0.0060324273063834255</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060034495614358363</v>
+        <v>0.0060031787155572225</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040034496029726085</v>
+        <v>-0.0040031787467293967</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999482516202</v>
+        <v>0.0039999999557558397</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.12618129703370684</v>
+        <v>-0.016103756730686314</v>
       </c>
       <c r="B18" s="0">
-        <v>0.12589963182572461</v>
+        <v>0.016091150696329493</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.084908018871655777</v>
+        <v>-0.012091150723576582</v>
       </c>
       <c r="B19" s="0">
-        <v>0.083818466464697927</v>
+        <v>0.012016438663065898</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.079818466501121677</v>
+        <v>-0.008016438692338923</v>
       </c>
       <c r="B20" s="0">
-        <v>0.079493349841822436</v>
+        <v>0.0080055903315585653</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.075493349881091909</v>
+        <v>-0.0040055903611388999</v>
       </c>
       <c r="B21" s="0">
-        <v>0.074958700916194054</v>
+        <v>0.0039999999701594291</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045702998243024595</v>
+        <v>-0.077753785884935311</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045492380300716562</v>
+        <v>0.077458274744609312</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040492380336178968</v>
+        <v>-0.072458274791543431</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040097705483291612</v>
+        <v>0.071884115817107741</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020097705597187598</v>
+        <v>-0.051884115968025668</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999884561248</v>
+        <v>0.051675097983191698</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.065609189149691716</v>
+        <v>-0.097194325611425825</v>
       </c>
       <c r="B25" s="0">
-        <v>0.065544450617268879</v>
+        <v>0.09707321465194596</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.063044450654571094</v>
+        <v>-0.094573214696371366</v>
       </c>
       <c r="B26" s="0">
-        <v>0.062963794327396627</v>
+        <v>0.094416867038502161</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.060463794366292234</v>
+        <v>-0.091916867085744425</v>
       </c>
       <c r="B27" s="0">
-        <v>0.060002129251771841</v>
+        <v>0.090988622722201651</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.05800212929432913</v>
+        <v>-0.088988622779091031</v>
       </c>
       <c r="B28" s="0">
-        <v>0.057699836668541948</v>
+        <v>0.088353173622129688</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081349921734801711</v>
+        <v>-0.081353173720598804</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081167769404383527</v>
+        <v>0.08116910508842512</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021167769745300991</v>
+        <v>-0.021169105531039456</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021022946039335633</v>
+        <v>0.021022649404528249</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014022946117695057</v>
+        <v>-0.01402264951078358</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001161104831183</v>
+        <v>0.014001007428086965</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040011611985431017</v>
+        <v>-0.0040010075540557466</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999361572947</v>
+        <v>0.0039999999123025987</v>
       </c>
     </row>
   </sheetData>
